--- a/data/trans_orig/P79_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R2-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>42868</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31969</v>
+        <v>31218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56698</v>
+        <v>56200</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07409874457514373</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05525854520043159</v>
+        <v>0.05396136264098821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09800329104040972</v>
+        <v>0.09714238528591561</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -762,19 +762,19 @@
         <v>57516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47253</v>
+        <v>46290</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70082</v>
+        <v>69377</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06996741770863522</v>
+        <v>0.06996741770863521</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05748283602505402</v>
+        <v>0.05631098545235835</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08525397012200177</v>
+        <v>0.08439599373334836</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -783,19 +783,19 @@
         <v>100384</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83453</v>
+        <v>84943</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118359</v>
+        <v>116944</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0716739363083163</v>
+        <v>0.07167393630831627</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05958529668814481</v>
+        <v>0.0606489853649804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08450769993491918</v>
+        <v>0.08349732530517065</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>535661</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>521831</v>
+        <v>522329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>546560</v>
+        <v>547311</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9259012554248565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9019967089595903</v>
+        <v>0.9028576147140831</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9447414547995684</v>
+        <v>0.9460386373590118</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1339</v>
@@ -833,19 +833,19 @@
         <v>764522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>751956</v>
+        <v>752661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>774785</v>
+        <v>775748</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9300325822913648</v>
+        <v>0.9300325822913649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9147460298779987</v>
+        <v>0.9156040062666515</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.942517163974946</v>
+        <v>0.9436890145476415</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1983</v>
@@ -854,19 +854,19 @@
         <v>1300183</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1282208</v>
+        <v>1283623</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1317114</v>
+        <v>1315624</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9283260636916837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9154923000650808</v>
+        <v>0.9165026746948302</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9404147033118551</v>
+        <v>0.9393510146350196</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>94442</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75886</v>
+        <v>75708</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117995</v>
+        <v>117303</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04234008533908231</v>
+        <v>0.0423400853390823</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03402100684518932</v>
+        <v>0.0339410568298813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05289893834925595</v>
+        <v>0.05258893175839342</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -979,19 +979,19 @@
         <v>85108</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68357</v>
+        <v>67817</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107518</v>
+        <v>107691</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03919502196355605</v>
+        <v>0.03919502196355604</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03148070489677278</v>
+        <v>0.03123196224050323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04951564573832509</v>
+        <v>0.0495954031959866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -1000,19 +1000,19 @@
         <v>179550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>151994</v>
+        <v>152276</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210603</v>
+        <v>210506</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04078869272828338</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03452875549515881</v>
+        <v>0.03459277553431143</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04784291858898419</v>
+        <v>0.04782106477752879</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2136124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2112571</v>
+        <v>2113263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2154680</v>
+        <v>2154858</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9576599146609177</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.947101061650744</v>
+        <v>0.9474110682416063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9659789931548107</v>
+        <v>0.9660589431701184</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2830</v>
@@ -1050,19 +1050,19 @@
         <v>2086284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2063874</v>
+        <v>2063701</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2103035</v>
+        <v>2103575</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.960804978036444</v>
+        <v>0.9608049780364438</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9504843542616745</v>
+        <v>0.9504045968040128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9685192951032273</v>
+        <v>0.9687680377594969</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4740</v>
@@ -1071,19 +1071,19 @@
         <v>4222409</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4191356</v>
+        <v>4191453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4249965</v>
+        <v>4249683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9592113072717164</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.952157081411016</v>
+        <v>0.9521789352224712</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9654712445048411</v>
+        <v>0.9654072244656884</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>9372</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4533</v>
+        <v>4129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17901</v>
+        <v>17292</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01317096157488521</v>
+        <v>0.0131709615748852</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006370246867022717</v>
+        <v>0.0058024435584419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02515694219384381</v>
+        <v>0.02430045190652119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1196,19 +1196,19 @@
         <v>8570</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4509</v>
+        <v>4335</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15866</v>
+        <v>15116</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01166208079576915</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006136229312753043</v>
+        <v>0.005898563263430099</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02159028604529265</v>
+        <v>0.02056986912841921</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1217,19 +1217,19 @@
         <v>17942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11206</v>
+        <v>10765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27614</v>
+        <v>27949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01240437356095278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007747214877300128</v>
+        <v>0.007442594790566197</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01909090041497421</v>
+        <v>0.01932220976229654</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>702215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>693686</v>
+        <v>694295</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>707054</v>
+        <v>707458</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9868290384251149</v>
+        <v>0.9868290384251147</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.974843057806156</v>
+        <v>0.9756995480934789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9936297531329772</v>
+        <v>0.9941975564415595</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>993</v>
@@ -1267,19 +1267,19 @@
         <v>726307</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>719011</v>
+        <v>719761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>730368</v>
+        <v>730542</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9883379192042308</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9784097139547079</v>
+        <v>0.9794301308715807</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.993863770687247</v>
+        <v>0.99410143673657</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1666</v>
@@ -1288,19 +1288,19 @@
         <v>1428522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1418850</v>
+        <v>1418515</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1435258</v>
+        <v>1435699</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9875956264390473</v>
+        <v>0.9875956264390471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9809090995850254</v>
+        <v>0.9806777902377034</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9922527851226998</v>
+        <v>0.9925574052094337</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>146683</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124057</v>
+        <v>125005</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177938</v>
+        <v>174830</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04166321325384555</v>
+        <v>0.04166321325384556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03523666893772091</v>
+        <v>0.03550577932510719</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05054075937435756</v>
+        <v>0.04965806232877894</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>190</v>
@@ -1413,19 +1413,19 @@
         <v>151194</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130860</v>
+        <v>129731</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176925</v>
+        <v>178730</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04055294151353694</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03509916217148022</v>
+        <v>0.03479611222801025</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04745444387648348</v>
+        <v>0.04793863090205829</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>327</v>
@@ -1434,19 +1434,19 @@
         <v>297877</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>260818</v>
+        <v>262759</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>332961</v>
+        <v>334674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04109217726584007</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03597996888898368</v>
+        <v>0.03624765893509455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04593203898409802</v>
+        <v>0.04616841630105261</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3374000</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3342745</v>
+        <v>3345853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3396626</v>
+        <v>3395678</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9583367867461544</v>
+        <v>0.9583367867461545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9494592406256425</v>
+        <v>0.950341937671221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.964763331062279</v>
+        <v>0.9644942206748928</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5162</v>
@@ -1484,19 +1484,19 @@
         <v>3577113</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3551382</v>
+        <v>3549577</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3597447</v>
+        <v>3598576</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9594470584864631</v>
+        <v>0.9594470584864629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9525455561235169</v>
+        <v>0.9520613690979417</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9649008378285199</v>
+        <v>0.9652038877719893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8389</v>
@@ -1505,19 +1505,19 @@
         <v>6951113</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6916029</v>
+        <v>6914316</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6988172</v>
+        <v>6986231</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9589078227341599</v>
+        <v>0.9589078227341601</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9540679610159017</v>
+        <v>0.9538315836989474</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9640200311110162</v>
+        <v>0.963752341064905</v>
       </c>
     </row>
     <row r="15">
